--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\node projects\Moodle_Plotter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086D37B7-CD9F-4C53-A816-B16D954680F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D014C-7329-4823-9617-2E1E9E87F5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,6 +109,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{1DCEB3DD-EB79-4C02-A763-B2A4D80D2131}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>user:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The values of this field must must not be other than the values available in the dropdown of signup page of our Cloud Academy.
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0A484612-45F8-436F-B032-E910A00F4AC8}">
       <text>
         <r>
@@ -234,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -294,13 +319,52 @@
   </si>
   <si>
     <t>citizenship</t>
+  </si>
+  <si>
+    <t>pradip</t>
+  </si>
+  <si>
+    <t>Genese@2020</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>Bhattarai</t>
+  </si>
+  <si>
+    <t>Butwal</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Brahman</t>
+  </si>
+  <si>
+    <t>pradip@genesecloud.academy</t>
+  </si>
+  <si>
+    <t>Rupandehi</t>
+  </si>
+  <si>
+    <t>2345-334</t>
+  </si>
+  <si>
+    <t>Nepathya College</t>
+  </si>
+  <si>
+    <t>BSC.CSIT</t>
+  </si>
+  <si>
+    <t>GCAPRADIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +391,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,13 +430,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -630,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,10 +804,76 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>35107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>2020</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>9867125079</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8C60EA73-6979-4D8A-9285-1224E914582B}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1D110330-1B35-40BF-89AA-5CCA080E0E5D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>